--- a/分数区间.xlsx
+++ b/分数区间.xlsx
@@ -1,125 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\PY\TransformGrades\Release\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF75F98-16A8-48B3-88AD-30B0A114B26B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8952" windowWidth="17280" xWindow="1800" yWindow="3084"/>
   </bookViews>
   <sheets>
-    <sheet name="分数区间" sheetId="1" r:id="rId1"/>
+    <sheet name="分数区间" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>成绩等级</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C+</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D+</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>等级成绩区间</t>
-  </si>
-  <si>
-    <t>原始成绩区间</t>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>化学</t>
-  </si>
-  <si>
-    <t>生物</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>历史</t>
-  </si>
-  <si>
-    <t>地理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -244,10 +180,71 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -258,68 +255,64 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -585,244 +578,476 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:R8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="10"/>
+    <row customHeight="1" ht="14.4" r="1" thickBot="1">
+      <c r="A1" s="12" t="inlineStr">
+        <is>
+          <t>成绩等级</t>
+        </is>
+      </c>
+      <c r="B1" s="13" t="n"/>
+      <c r="C1" s="12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1" s="13" t="n"/>
+      <c r="E1" s="12" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="F1" s="13" t="n"/>
+      <c r="G1" s="12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H1" s="13" t="n"/>
+      <c r="I1" s="12" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="J1" s="13" t="n"/>
+      <c r="K1" s="12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L1" s="13" t="n"/>
+      <c r="M1" s="12" t="inlineStr">
+        <is>
+          <t>D+</t>
+        </is>
+      </c>
+      <c r="N1" s="13" t="n"/>
+      <c r="O1" s="12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P1" s="13" t="n"/>
+      <c r="Q1" s="12" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="R1" s="13" t="n"/>
     </row>
-    <row r="2" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="7">
+    <row customHeight="1" ht="14.4" r="2" thickBot="1">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>等级成绩区间</t>
+        </is>
+      </c>
+      <c r="B2" s="13" t="n"/>
+      <c r="C2" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="11" t="n">
         <v>91</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="10" t="n">
         <v>90</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="11" t="n">
         <v>81</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="10" t="n">
         <v>80</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="10" t="n">
         <v>70</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="11" t="n">
         <v>61</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10" t="n">
         <v>60</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="11" t="n">
         <v>51</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="11" t="n">
         <v>41</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="11" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="2"/>
+    <row customHeight="1" ht="14.4" r="3">
+      <c r="A3" s="14" t="inlineStr">
+        <is>
+          <t>原始成绩区间</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>物理</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>98</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>95</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>94</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>89</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>88</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>82</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>81</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <v>73</v>
+      </c>
+      <c r="K3" s="7" t="n">
+        <v>72</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <v>63</v>
+      </c>
+      <c r="M3" s="7" t="n">
+        <v>62</v>
+      </c>
+      <c r="N3" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="O3" s="7" t="n">
+        <v>51</v>
+      </c>
+      <c r="P3" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="7" t="n">
+        <v>39</v>
+      </c>
+      <c r="R3" s="8" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="2"/>
+    <row customHeight="1" ht="14.4" r="4">
+      <c r="A4" s="15" t="n"/>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>化学</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="2"/>
+    <row customHeight="1" ht="14.4" r="5">
+      <c r="A5" s="15" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>生物</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+    <row customHeight="1" ht="14.4" r="6">
+      <c r="A6" s="15" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>政治</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+    <row customHeight="1" ht="14.4" r="7">
+      <c r="A7" s="15" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>历史</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>23.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="4"/>
+    <row customHeight="1" ht="14.4" r="8" thickBot="1">
+      <c r="A8" s="18" t="n"/>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>地理</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>19</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>17</v>
+    <row r="12">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -839,8 +1064,7 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>